--- a/资产负债表/300613.xlsx
+++ b/资产负债表/300613.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,61 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2016-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>334181581.78</v>
+        <v>1298832753.92</v>
       </c>
       <c r="P2" t="n">
-        <v>12667548.18</v>
+        <v>173050314.84</v>
       </c>
       <c r="Q2" t="n">
-        <v>192095531.62</v>
+        <v>635208993.71</v>
       </c>
       <c r="R2" t="n">
-        <v>74.3412430309</v>
+        <v>28.3778662123</v>
       </c>
       <c r="S2" t="n">
-        <v>44403738.35</v>
+        <v>61657361.09</v>
       </c>
       <c r="T2" t="n">
-        <v>26.4921554912</v>
+        <v>-45.5213939836</v>
       </c>
       <c r="U2" t="n">
-        <v>39242958.67</v>
+        <v>124317361.89</v>
       </c>
       <c r="V2" t="n">
-        <v>44.5993640216</v>
+        <v>118.0109340664</v>
       </c>
       <c r="W2" t="n">
-        <v>59174757.53</v>
+        <v>122632144.8</v>
       </c>
       <c r="X2" t="n">
-        <v>8009116.66</v>
+        <v>32258180.59</v>
       </c>
       <c r="Y2" t="n">
-        <v>-27.5815549115</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>17266486.96</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>8.9617696231</v>
-      </c>
+        <v>-4.1139466561</v>
+      </c>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>275006824.25</v>
+        <v>1176200609.12</v>
       </c>
       <c r="AC2" t="n">
-        <v>74.80093473869999</v>
+        <v>7.951101486</v>
       </c>
       <c r="AD2" t="n">
-        <v>61.9535399575</v>
+        <v>10.4843875668</v>
       </c>
       <c r="AE2" t="n">
-        <v>20.7195110921</v>
+        <v>42.5749627737</v>
       </c>
       <c r="AF2" t="n">
-        <v>617.8213221111999</v>
+        <v>998.9568345439</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.7073665206</v>
+        <v>9.441719453899999</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
